--- a/app/data/mould/companyInfo.xlsx
+++ b/app/data/mould/companyInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MedicalWar\app\data\mould\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16CE99D-E046-E245-9AD4-2D2CA639756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8FF38B-6DAB-402D-B588-BE3E2CE8FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="16080" windowHeight="8940" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
+    <workbookView xWindow="-21015" yWindow="1140" windowWidth="12075" windowHeight="11685" xr2:uid="{8C726EFA-240E-0A43-B05B-47861869E8A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>营收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上轮营收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,7 +148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,19 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CDBF7-2020-8E4B-86F6-573F384B5F1B}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +506,11 @@
       <c r="K1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,8 +544,11 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -572,8 +582,11 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -607,8 +620,11 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -640,6 +656,9 @@
         <v>10</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
